--- a/data/trans_camb/P18_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,69</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,6</t>
+          <t>32,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,15</t>
+          <t>27,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>14,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,05</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 8,25</t>
+          <t>1,12; 52,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -0,82</t>
+          <t>8,9; 59,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,54; -0,17</t>
+          <t>3,7; 57,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 5,23</t>
+          <t>-32,21; 30,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 11,47</t>
+          <t>-14,48; 22,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 8,19</t>
+          <t>-19,76; 17,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 2,08</t>
+          <t>-18,85; 16,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 3,34</t>
+          <t>-9,31; 34,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 1,7</t>
+          <t>-0,69; 32,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 32,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 31,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 24,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>65,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,28%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,38%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,11%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 23,63</t>
+          <t>0,77; 228,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,61; -1,56</t>
+          <t>14,65; 249,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,31; -0,56</t>
+          <t>4,61; 278,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 9,86</t>
+          <t>-61,01; 101,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 20,96</t>
+          <t>-34,51; 102,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 13,43</t>
+          <t>-50,69; 75,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 4,2</t>
+          <t>-45,54; 75,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 6,68</t>
+          <t>-25,88; 150,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 3,76</t>
+          <t>-1,32; 121,94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 117,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 116,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-29,66; 86,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,64</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,72</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,44</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>13,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -7,19</t>
+          <t>-0,36; 20,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 5,52</t>
+          <t>-7,19; 16,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 4,45</t>
+          <t>-13,04; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -10,42</t>
+          <t>-14,55; 10,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -4,63</t>
+          <t>5,11; 26,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -5,31</t>
+          <t>2,09; 22,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -11,49</t>
+          <t>2,48; 22,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,91</t>
+          <t>5,67; 27,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -4,76</t>
+          <t>5,05; 21,04</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 16,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 16,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 16,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,32%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-34,7%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,3%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,6; -22,66</t>
+          <t>-0,52; 34,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 17,8</t>
+          <t>-9,96; 28,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 14,51</t>
+          <t>-18,67; 21,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,42; -17,25</t>
+          <t>-20,81; 17,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,32; -7,67</t>
+          <t>12,22; 90,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -8,79</t>
+          <t>5,1; 79,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -24,36</t>
+          <t>6,56; 79,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -6,13</t>
+          <t>14,74; 95,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -9,78</t>
+          <t>9,36; 46,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 36,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 36,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 36,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-26,62</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,92</t>
+          <t>25,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>22,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,51</t>
+          <t>20,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,82</t>
+          <t>24,08</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,39</t>
+          <t>20,68</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,67</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,19</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,0; -4,51</t>
+          <t>2,71; 25,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 8,15</t>
+          <t>-8,35; 16,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 7,08</t>
+          <t>-7,24; 16,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -18,34</t>
+          <t>-9,81; 16,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -13,83</t>
+          <t>14,71; 35,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,0; -11,34</t>
+          <t>12,15; 32,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -14,52</t>
+          <t>9,57; 30,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -5,91</t>
+          <t>12,74; 33,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -5,37</t>
+          <t>12,73; 28,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 23,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 21,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 23,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,97%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,93%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,38%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,76%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>68,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-24,62%</t>
+          <t>43,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,22; -16,36</t>
+          <t>4,13; 45,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 33,62</t>
+          <t>-12,16; 28,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 29,27</t>
+          <t>-10,36; 29,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,06; -29,91</t>
+          <t>-13,81; 29,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,03; -21,22</t>
+          <t>38,04; 120,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,51; -17,73</t>
+          <t>28,92; 107,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,13; -29,8</t>
+          <t>25,09; 101,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -12,89</t>
+          <t>31,78; 114,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; -11,44</t>
+          <t>24,33; 66,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 52,8</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 49,94</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 54,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -13,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -9,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -9,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -12,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-29,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-33,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,84; -22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -21,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -14,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -15,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -26,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,41; -12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,67; -13,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,49</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14,62</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13,98</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,56</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16,19</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11,83</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10,81</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 21,74</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 16,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 14,88</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 8,44</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11,59; 24,63</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 21,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 20,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 24,85</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 21,66</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 17,82</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 16,35</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 15,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53,55%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40,5%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50,85%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 39,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 28,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 25,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,53; 14,5</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>29,5; 78,41</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 70,42</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 67,17</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27,88; 80,4</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 48,72</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 40,29</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 37,42</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 34,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
